--- a/public/data/db_source/value.xlsx
+++ b/public/data/db_source/value.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannuaire/datannuaire_dev/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABDE67-C1A9-F648-903C-22EC28F7E2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F6978F-6AD6-A648-A93D-0D48C49FDBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t>modality_id</t>
   </si>
@@ -74,6 +74,198 @@
   </si>
   <si>
     <t>&lt;i&gt;a&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>ZH</t>
+  </si>
+  <si>
+    <t>Berne</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Lucerne</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>Schwytz</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>Obwald</t>
+  </si>
+  <si>
+    <t>OW</t>
+  </si>
+  <si>
+    <t>Nidwald</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>Glaris</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>Zoug</t>
+  </si>
+  <si>
+    <t>ZG</t>
+  </si>
+  <si>
+    <t>Fribourg</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Soleure</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Bâle-Ville</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Bâle-Campagne</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Schaffhouse</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>Appenzell Rhodes-Extérieures</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Appenzell Rhodes-Intérieures</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Saint-Gall</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Grisons</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Argovie</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Thurgovie</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Tessin</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Vaud</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>Valais</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>Neuchâtel</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Genève</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Jura</t>
+  </si>
+  <si>
+    <t>JU</t>
+  </si>
+  <si>
+    <t>canton_sigle</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Italien</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Allemand</t>
+  </si>
+  <si>
+    <t>langue_sigle</t>
+  </si>
+  <si>
+    <t>oui_non</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>vide</t>
+  </si>
+  <si>
+    <t>vide / manquant</t>
   </si>
 </sst>
 </file>
@@ -148,8 +340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6673E3E-F092-B843-96DC-BE1B5C5F51B8}" name="Tableau3" displayName="Tableau3" ref="A1:C10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C10" xr:uid="{B6673E3E-F092-B843-96DC-BE1B5C5F51B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6673E3E-F092-B843-96DC-BE1B5C5F51B8}" name="Tableau3" displayName="Tableau3" ref="A1:C42" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C42" xr:uid="{B6673E3E-F092-B843-96DC-BE1B5C5F51B8}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F479AE5F-1828-5E4C-A23B-6285A48F29B3}" name="modality_id" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{84C4D4A2-8ACD-B045-91A5-EBA02C626C87}" name="value" dataDxfId="1"/>
@@ -446,10 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -564,6 +757,355 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/public/data/db_source/value.xlsx
+++ b/public/data/db_source/value.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F6978F-6AD6-A648-A93D-0D48C49FDBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FBFF9F-A061-4E40-96F0-ECC074F7DB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
   <si>
     <t>modality_id</t>
   </si>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>vide / manquant</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>manquant</t>
   </si>
 </sst>
 </file>
@@ -340,8 +352,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6673E3E-F092-B843-96DC-BE1B5C5F51B8}" name="Tableau3" displayName="Tableau3" ref="A1:C42" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C42" xr:uid="{B6673E3E-F092-B843-96DC-BE1B5C5F51B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B6673E3E-F092-B843-96DC-BE1B5C5F51B8}" name="Tableau3" displayName="Tableau3" ref="A1:C44" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C44" xr:uid="{B6673E3E-F092-B843-96DC-BE1B5C5F51B8}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F479AE5F-1828-5E4C-A23B-6285A48F29B3}" name="modality_id" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{84C4D4A2-8ACD-B045-91A5-EBA02C626C87}" name="value" dataDxfId="1"/>
@@ -638,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1078,13 +1090,13 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1092,18 +1104,40 @@
         <v>77</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/db_source/value.xlsx
+++ b/public/data/db_source/value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FBFF9F-A061-4E40-96F0-ECC074F7DB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2196ED-BEF8-1B49-8666-16B88A4965FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,13 +271,13 @@
     <t>ZZ</t>
   </si>
   <si>
-    <t>xyz</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
     <t>manquant</t>
+  </si>
+  <si>
+    <t>xyz2</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1096,7 +1096,7 @@
         <v>82</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1134,10 +1134,10 @@
         <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
